--- a/hakwonband-hakwon-web/src/main/webapp/file/회원등록엑셀.xlsx
+++ b/hakwonband-hakwon-web/src/main/webapp/file/회원등록엑셀.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bumworld\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>이름</t>
   </si>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kimkd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test-1@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,27 +51,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이메일(중복안되게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7845-7415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일(xxxx-xx-xx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-11-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>타입(S/P)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이메일(중복안되게)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7845-7415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생일(xxxx-xx-xx)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011-11-28</t>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김개똥 부모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-1-p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-1-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-1-p@test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test-1-s@test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980-09-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7845-7416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -447,9 +487,9 @@
     <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -461,50 +501,83 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>1111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/hakwonband-hakwon-web/src/main/webapp/file/회원등록엑셀.xlsx
+++ b/hakwonband-hakwon-web/src/main/webapp/file/회원등록엑셀.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,11 +115,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수학반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반이름</t>
+    <t>반이름(구분자 |)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학반|영어반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,6 +282,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -317,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,7 +506,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,6 +519,7 @@
     <col min="6" max="6" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -513,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -542,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
